--- a/Telco Churn Analysis.xlsx
+++ b/Telco Churn Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="Churn Analysis" sheetId="6" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -374,6 +374,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1981,11 +1982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="254668856"/>
-        <c:axId val="254669240"/>
+        <c:axId val="272536368"/>
+        <c:axId val="272535192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254668856"/>
+        <c:axId val="272536368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254669240"/>
+        <c:crossAx val="272535192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2033,7 +2034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254669240"/>
+        <c:axId val="272535192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254668856"/>
+        <c:crossAx val="272536368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3491,8 +3492,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3517,11 +3518,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="17" x14ac:dyDescent="0.4">
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E3" s="5" t="s">
@@ -3546,16 +3547,16 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="G7" s="16" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
@@ -3618,16 +3619,16 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="G15" s="21" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="G15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -3694,16 +3695,16 @@
       <c r="L18" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="G22" s="22" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="G22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
@@ -3766,96 +3767,112 @@
         <v>13193241.800000001</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="2:14" ht="38.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="G30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="G31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="18">
+      <c r="C32" s="16"/>
+      <c r="D32" s="19">
         <v>74.44</v>
       </c>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
+      <c r="E32" s="19"/>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4933</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1543</v>
+      </c>
+      <c r="J32" s="11">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="18">
+      <c r="C33" s="16"/>
+      <c r="D33" s="19">
         <v>61.27</v>
       </c>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="37" spans="2:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="B37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4933</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1543</v>
-      </c>
-      <c r="E39" s="4">
-        <v>31.28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="4">
+      <c r="E33" s="19"/>
+      <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="C40" s="4">
+      <c r="H33" s="11">
         <v>2110</v>
       </c>
-      <c r="D40" s="4">
+      <c r="I33" s="11">
         <v>326</v>
       </c>
-      <c r="E40" s="4">
+      <c r="J33" s="11">
         <v>15.45</v>
       </c>
     </row>
+    <row r="37" spans="2:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B32:C32"/>
@@ -3871,6 +3888,7 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3899,19 +3917,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -5069,7 +5087,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
